--- a/Code/Results/Cases/Case_3_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.331700277803748</v>
+        <v>1.053505811508217</v>
       </c>
       <c r="C2">
-        <v>0.3221333325184474</v>
+        <v>0.1992382023926211</v>
       </c>
       <c r="D2">
-        <v>0.1141111567894271</v>
+        <v>0.2241980064248708</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5593518029135396</v>
+        <v>1.089944437231786</v>
       </c>
       <c r="G2">
-        <v>0.335284660954656</v>
+        <v>0.5389779156351295</v>
       </c>
       <c r="H2">
-        <v>0.2736798340116167</v>
+        <v>0.6749900868873766</v>
       </c>
       <c r="I2">
-        <v>0.2447813766399598</v>
+        <v>0.6393562858807513</v>
       </c>
       <c r="J2">
-        <v>0.05989071954842906</v>
+        <v>0.1780621131439286</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3384800780070236</v>
+        <v>0.3876720284449675</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8329563469692687</v>
+        <v>1.175515594943626</v>
       </c>
       <c r="O2">
-        <v>1.233224940594283</v>
+        <v>2.398732720235103</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.030290253280327</v>
+        <v>0.9620794073420598</v>
       </c>
       <c r="C3">
-        <v>0.2943033495894838</v>
+        <v>0.1899420474211269</v>
       </c>
       <c r="D3">
-        <v>0.1072033573823958</v>
+        <v>0.2234080634790772</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5339209552456197</v>
+        <v>1.091953429321521</v>
       </c>
       <c r="G3">
-        <v>0.3149603710729636</v>
+        <v>0.5388811009410333</v>
       </c>
       <c r="H3">
-        <v>0.2694696796108431</v>
+        <v>0.6786162384583392</v>
       </c>
       <c r="I3">
-        <v>0.2479027679598111</v>
+        <v>0.645743417936977</v>
       </c>
       <c r="J3">
-        <v>0.06169273150424459</v>
+        <v>0.1796287380230268</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3032391477519809</v>
+        <v>0.3794413889013413</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8320206848559408</v>
+        <v>1.178167065373636</v>
       </c>
       <c r="O3">
-        <v>1.180979757499543</v>
+        <v>2.405854679637031</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.845195110958741</v>
+        <v>0.9059858800534357</v>
       </c>
       <c r="C4">
-        <v>0.277170276228631</v>
+        <v>0.1841997647119626</v>
       </c>
       <c r="D4">
-        <v>0.1030566851458303</v>
+        <v>0.2229982347096993</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5193062377594799</v>
+        <v>1.093771950556572</v>
       </c>
       <c r="G4">
-        <v>0.3032104993331899</v>
+        <v>0.539189518556924</v>
       </c>
       <c r="H4">
-        <v>0.2673532227865891</v>
+        <v>0.6811409513148021</v>
       </c>
       <c r="I4">
-        <v>0.2504182957239323</v>
+        <v>0.6500110477806906</v>
       </c>
       <c r="J4">
-        <v>0.06289079322742097</v>
+        <v>0.1806545973539446</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2817940031817159</v>
+        <v>0.3745257404509488</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8322769204642313</v>
+        <v>1.180209076753961</v>
       </c>
       <c r="O4">
-        <v>1.151418645629391</v>
+        <v>2.411622324664336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.769746436993216</v>
+        <v>0.883139936694846</v>
       </c>
       <c r="C5">
-        <v>0.270176244486791</v>
+        <v>0.1818512720258383</v>
       </c>
       <c r="D5">
-        <v>0.1013898639595396</v>
+        <v>0.222850208258798</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5135906302402944</v>
+        <v>1.094660225333982</v>
       </c>
       <c r="G5">
-        <v>0.2985958569413611</v>
+        <v>0.5394076752139298</v>
       </c>
       <c r="H5">
-        <v>0.2666041807426112</v>
+        <v>0.6822448567885857</v>
       </c>
       <c r="I5">
-        <v>0.2515883646697148</v>
+        <v>0.6518371105565954</v>
       </c>
       <c r="J5">
-        <v>0.0634015529907721</v>
+        <v>0.1810887378344148</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2731000581010079</v>
+        <v>0.3725574983989475</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8325842007727502</v>
+        <v>1.181145573082816</v>
       </c>
       <c r="O5">
-        <v>1.139975185686595</v>
+        <v>2.414323483140549</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.757216593180374</v>
+        <v>0.8793472035891625</v>
       </c>
       <c r="C6">
-        <v>0.269014135183653</v>
+        <v>0.1814608007593961</v>
       </c>
       <c r="D6">
-        <v>0.1011144536511281</v>
+        <v>0.2228267771853254</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5126557287193378</v>
+        <v>1.094816617242806</v>
       </c>
       <c r="G6">
-        <v>0.2978397989477557</v>
+        <v>0.539449484337851</v>
       </c>
       <c r="H6">
-        <v>0.2664865287381559</v>
+        <v>0.6824326952017969</v>
       </c>
       <c r="I6">
-        <v>0.2517912486971312</v>
+        <v>0.6521455792595177</v>
       </c>
       <c r="J6">
-        <v>0.06348771137547082</v>
+        <v>0.181161799035392</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2716590647655721</v>
+        <v>0.3722327892547668</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8326473060620643</v>
+        <v>1.181307388311097</v>
       </c>
       <c r="O6">
-        <v>1.138110566226544</v>
+        <v>2.414793198014308</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.844177686003945</v>
+        <v>0.9056777180387598</v>
       </c>
       <c r="C7">
-        <v>0.2770760024843497</v>
+        <v>0.1841681261496149</v>
       </c>
       <c r="D7">
-        <v>0.1030341138487358</v>
+        <v>0.2229961614192035</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5192281980497953</v>
+        <v>1.093783333934596</v>
       </c>
       <c r="G7">
-        <v>0.3031475747921135</v>
+        <v>0.5391920863076436</v>
       </c>
       <c r="H7">
-        <v>0.2673426673423194</v>
+        <v>0.6811555349448497</v>
       </c>
       <c r="I7">
-        <v>0.2504334960003902</v>
+        <v>0.6500353225832463</v>
       </c>
       <c r="J7">
-        <v>0.0628975908941829</v>
+        <v>0.1806603871381363</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2816765752430967</v>
+        <v>0.3744990543440707</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8322802509255638</v>
+        <v>1.18022128377698</v>
       </c>
       <c r="O7">
-        <v>1.151261912784122</v>
+        <v>2.411657332967309</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.22777126674373</v>
+        <v>1.021974244160901</v>
       </c>
       <c r="C8">
-        <v>0.312546479308665</v>
+        <v>0.1960401377800594</v>
       </c>
       <c r="D8">
-        <v>0.1117091624658286</v>
+        <v>0.2239100693617502</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.550368675265247</v>
+        <v>1.090515787356956</v>
       </c>
       <c r="G8">
-        <v>0.3281193992455371</v>
+        <v>0.5388681656978207</v>
       </c>
       <c r="H8">
-        <v>0.2721282067738926</v>
+        <v>0.676178525098031</v>
       </c>
       <c r="I8">
-        <v>0.2457298455185963</v>
+        <v>0.6414867696361419</v>
       </c>
       <c r="J8">
-        <v>0.06049273244382825</v>
+        <v>0.1785890226061859</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3262868611059275</v>
+        <v>0.3848055936836943</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8324575861203556</v>
+        <v>1.176344048110984</v>
       </c>
       <c r="O8">
-        <v>1.214669705521416</v>
+        <v>2.40089893800932</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.980478058236827</v>
+        <v>1.250297513892406</v>
       </c>
       <c r="C9">
-        <v>0.3817853958830995</v>
+        <v>0.2190409988657223</v>
       </c>
       <c r="D9">
-        <v>0.1295134007816685</v>
+        <v>0.2262959867447307</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6199115689435715</v>
+        <v>1.08874600079843</v>
       </c>
       <c r="G9">
-        <v>0.3833440683113736</v>
+        <v>0.5411538878790907</v>
       </c>
       <c r="H9">
-        <v>0.2854393590470323</v>
+        <v>0.6687822527688922</v>
       </c>
       <c r="I9">
-        <v>0.2415242515584239</v>
+        <v>0.6274682467506771</v>
       </c>
       <c r="J9">
-        <v>0.05652700670845157</v>
+        <v>0.1750337668216897</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4154637826205061</v>
+        <v>0.4061030906527208</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8396845837226721</v>
+        <v>1.172015239865729</v>
       </c>
       <c r="O9">
-        <v>1.360418412436104</v>
+        <v>2.390867283439661</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.534885311896346</v>
+        <v>1.418128021485416</v>
       </c>
       <c r="C10">
-        <v>0.4325287609901238</v>
+        <v>0.2357609244943148</v>
       </c>
       <c r="D10">
-        <v>0.1431379706483682</v>
+        <v>0.2284073367851107</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6769676365934245</v>
+        <v>1.090269667563291</v>
       </c>
       <c r="G10">
-        <v>0.428416909445744</v>
+        <v>0.5446180216760297</v>
       </c>
       <c r="H10">
-        <v>0.2979185215369995</v>
+        <v>0.6647857972259885</v>
       </c>
       <c r="I10">
-        <v>0.2418795828521603</v>
+        <v>0.6188431986386362</v>
       </c>
       <c r="J10">
-        <v>0.05410417940995416</v>
+        <v>0.1727296183461657</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.482265223923207</v>
+        <v>0.422403091685922</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8496110345597998</v>
+        <v>1.170818240456626</v>
       </c>
       <c r="O10">
-        <v>1.482645000134482</v>
+        <v>2.390245045757155</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.787668235870797</v>
+        <v>1.494479993581365</v>
       </c>
       <c r="C11">
-        <v>0.4556026674399334</v>
+        <v>0.2433268146108105</v>
       </c>
       <c r="D11">
-        <v>0.1494684546259322</v>
+        <v>0.2294449434378265</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7044052151543383</v>
+        <v>1.091575387524927</v>
       </c>
       <c r="G11">
-        <v>0.4500597111038189</v>
+        <v>0.5465824545558604</v>
       </c>
       <c r="H11">
-        <v>0.3042535702270186</v>
+        <v>0.6632791878578672</v>
       </c>
       <c r="I11">
-        <v>0.242879424352779</v>
+        <v>0.6152832035624769</v>
       </c>
       <c r="J11">
-        <v>0.05311629461881395</v>
+        <v>0.1717480480991824</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5129926251358938</v>
+        <v>0.4299582029079687</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8552288928781451</v>
+        <v>1.170701804173945</v>
       </c>
       <c r="O11">
-        <v>1.542029516491709</v>
+        <v>2.39142793466965</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.883496699780267</v>
+        <v>1.523391501343951</v>
       </c>
       <c r="C12">
-        <v>0.4643402239848058</v>
+        <v>0.2461858860903021</v>
       </c>
       <c r="D12">
-        <v>0.1518859365434366</v>
+        <v>0.2298488827573522</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7150247081743402</v>
+        <v>1.092157836699982</v>
       </c>
       <c r="G12">
-        <v>0.4584332608570918</v>
+        <v>0.5473822633397276</v>
       </c>
       <c r="H12">
-        <v>0.3067534890866028</v>
+        <v>0.6627533925965849</v>
       </c>
       <c r="I12">
-        <v>0.2433865434998168</v>
+        <v>0.6139874282938571</v>
       </c>
       <c r="J12">
-        <v>0.0527593263820183</v>
+        <v>0.1713859149384636</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5246821660328465</v>
+        <v>0.432839079159578</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8575235390934353</v>
+        <v>1.1707190493007</v>
       </c>
       <c r="O12">
-        <v>1.56510431041022</v>
+        <v>2.392086655667555</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.862853291207102</v>
+        <v>1.517164982489476</v>
       </c>
       <c r="C13">
-        <v>0.4624584135863188</v>
+        <v>0.2455704024880561</v>
       </c>
       <c r="D13">
-        <v>0.151364367446476</v>
+        <v>0.2297613982319291</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7127271341516916</v>
+        <v>1.092028483398451</v>
       </c>
       <c r="G13">
-        <v>0.4566217213345709</v>
+        <v>0.5472075224475503</v>
       </c>
       <c r="H13">
-        <v>0.3062104911281551</v>
+        <v>0.6628646437125099</v>
       </c>
       <c r="I13">
-        <v>0.2432714793320052</v>
+        <v>0.6142641692918218</v>
       </c>
       <c r="J13">
-        <v>0.05283543297719895</v>
+        <v>0.1714634815032099</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5221621412784287</v>
+        <v>0.432217748728192</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8570217605308414</v>
+        <v>1.170712610748211</v>
       </c>
       <c r="O13">
-        <v>1.560107910299223</v>
+        <v>2.391935413793249</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.795549866094234</v>
+        <v>1.496858599055088</v>
       </c>
       <c r="C14">
-        <v>0.4563215039905231</v>
+        <v>0.2435621528845218</v>
       </c>
       <c r="D14">
-        <v>0.1496669290679193</v>
+        <v>0.2294779553244837</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7052741912854117</v>
+        <v>1.091621542806081</v>
       </c>
       <c r="G14">
-        <v>0.4507449589576851</v>
+        <v>0.5466471343296604</v>
       </c>
       <c r="H14">
-        <v>0.3044571787839914</v>
+        <v>0.6632350343172675</v>
       </c>
       <c r="I14">
-        <v>0.2429185226980017</v>
+        <v>0.61517555063012</v>
       </c>
       <c r="J14">
-        <v>0.0530865793866937</v>
+        <v>0.1717180635261535</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5139532239536493</v>
+        <v>0.4301948164591778</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8554142700079694</v>
+        <v>1.170701994906366</v>
       </c>
       <c r="O14">
-        <v>1.543915869202408</v>
+        <v>2.391477903661041</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.754338925925367</v>
+        <v>1.484420119245158</v>
       </c>
       <c r="C15">
-        <v>0.4525625074415416</v>
+        <v>0.2423312589511397</v>
       </c>
       <c r="D15">
-        <v>0.1486298748869075</v>
+        <v>0.2293057713529691</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7007394338793631</v>
+        <v>1.091383737649508</v>
       </c>
       <c r="G15">
-        <v>0.4471688725505487</v>
+        <v>0.5463111642085465</v>
       </c>
       <c r="H15">
-        <v>0.3033965684017232</v>
+        <v>0.6634677321796687</v>
       </c>
       <c r="I15">
-        <v>0.2427193056065349</v>
+        <v>0.6157406123405167</v>
       </c>
       <c r="J15">
-        <v>0.05324266475144412</v>
+        <v>0.1718752478529062</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5089321771276616</v>
+        <v>0.4289582991750223</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8544516905979691</v>
+        <v>1.17070347379989</v>
       </c>
       <c r="O15">
-        <v>1.534075569564948</v>
+        <v>2.391225115641618</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.518378840445791</v>
+        <v>1.413138166435544</v>
       </c>
       <c r="C16">
-        <v>0.4310207469782483</v>
+        <v>0.2352656518053209</v>
       </c>
       <c r="D16">
-        <v>0.1427270276453498</v>
+        <v>0.228341072834283</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6752057286810995</v>
+        <v>1.090196655095525</v>
       </c>
       <c r="G16">
-        <v>0.4270266066808404</v>
+        <v>0.5444974643368852</v>
       </c>
       <c r="H16">
-        <v>0.2975182878722649</v>
+        <v>0.6648905192332109</v>
       </c>
       <c r="I16">
-        <v>0.2418317783240767</v>
+        <v>0.6190831718897911</v>
       </c>
       <c r="J16">
-        <v>0.05417109761424221</v>
+        <v>0.1727951054946413</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4802643576757646</v>
+        <v>0.4219121476618</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8492668135785379</v>
+        <v>1.17083444500777</v>
       </c>
       <c r="O16">
-        <v>1.478843837128238</v>
+        <v>2.390197238603463</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.373788461864763</v>
+        <v>1.369408825965024</v>
       </c>
       <c r="C17">
-        <v>0.4178040510615517</v>
+        <v>0.2309207190947689</v>
       </c>
       <c r="D17">
-        <v>0.1391406141141118</v>
+        <v>0.2277689678439287</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6599326189030137</v>
+        <v>1.089625255886546</v>
       </c>
       <c r="G17">
-        <v>0.4149714619343854</v>
+        <v>0.5434843743277042</v>
       </c>
       <c r="H17">
-        <v>0.2940851158051316</v>
+        <v>0.665843071390924</v>
       </c>
       <c r="I17">
-        <v>0.2415075185394251</v>
+        <v>0.6212268710579849</v>
       </c>
       <c r="J17">
-        <v>0.05477040852980508</v>
+        <v>0.1733764582690398</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.46276786999411</v>
+        <v>0.4176252927579611</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.846374462233868</v>
+        <v>1.17102427573974</v>
       </c>
       <c r="O17">
-        <v>1.44595977829951</v>
+        <v>2.38994212416145</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.290677129824189</v>
+        <v>1.344257461956772</v>
       </c>
       <c r="C18">
-        <v>0.410201175110501</v>
+        <v>0.2284178675163844</v>
       </c>
       <c r="D18">
-        <v>0.1370902090094006</v>
+        <v>0.2274471735973123</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6512864366746243</v>
+        <v>1.089354268047082</v>
       </c>
       <c r="G18">
-        <v>0.4081439695375053</v>
+        <v>0.5429382443421815</v>
       </c>
       <c r="H18">
-        <v>0.2921719994738368</v>
+        <v>0.6664202676899009</v>
       </c>
       <c r="I18">
-        <v>0.2413994046159083</v>
+        <v>0.6224940901711911</v>
       </c>
       <c r="J18">
-        <v>0.05512582867965854</v>
+        <v>0.1737171061987013</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4527359527939154</v>
+        <v>0.4151728136876187</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8448140528200412</v>
+        <v>1.171173767658033</v>
       </c>
       <c r="O18">
-        <v>1.427399077513172</v>
+        <v>2.389933372123437</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.262545571005887</v>
+        <v>1.335741807176021</v>
       </c>
       <c r="C19">
-        <v>0.4076267646362908</v>
+        <v>0.2275698051611243</v>
       </c>
       <c r="D19">
-        <v>0.1363980722965721</v>
+        <v>0.2273394696560018</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6483822957967007</v>
+        <v>1.089272423090897</v>
       </c>
       <c r="G19">
-        <v>0.4058501403183357</v>
+        <v>0.5427596141516347</v>
       </c>
       <c r="H19">
-        <v>0.2915346366229983</v>
+        <v>0.6666207326957618</v>
       </c>
       <c r="I19">
-        <v>0.2413760275782799</v>
+        <v>0.6229290250476751</v>
       </c>
       <c r="J19">
-        <v>0.05524798725037883</v>
+        <v>0.1738335207981265</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4493445988120186</v>
+        <v>0.4143447218027489</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8443031895893967</v>
+        <v>1.171231312505412</v>
       </c>
       <c r="O19">
-        <v>1.421174156783252</v>
+        <v>2.389954107960108</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.389174694086819</v>
+        <v>1.374063842086343</v>
       </c>
       <c r="C20">
-        <v>0.4192110832671574</v>
+        <v>0.2313836353369538</v>
       </c>
       <c r="D20">
-        <v>0.1395211016225062</v>
+        <v>0.2278291179818837</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6615440176625356</v>
+        <v>1.089680114749044</v>
       </c>
       <c r="G20">
-        <v>0.4162436507013325</v>
+        <v>0.5435884340452759</v>
       </c>
       <c r="H20">
-        <v>0.2944441677156817</v>
+        <v>0.665738637139782</v>
       </c>
       <c r="I20">
-        <v>0.2415338670388429</v>
+        <v>0.6209951287212405</v>
       </c>
       <c r="J20">
-        <v>0.05470549728683238</v>
+        <v>0.1733139235127474</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4646270954814611</v>
+        <v>0.4180802706620312</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8466716157612098</v>
+        <v>1.170999897997703</v>
       </c>
       <c r="O20">
-        <v>1.44942346878625</v>
+        <v>2.389955000899761</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.815315481843641</v>
+        <v>1.502823128444788</v>
       </c>
       <c r="C21">
-        <v>0.4581240526605654</v>
+        <v>0.2441521880233211</v>
       </c>
       <c r="D21">
-        <v>0.1501649479873919</v>
+        <v>0.2295609108726921</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7074569385090257</v>
+        <v>1.091738683507884</v>
       </c>
       <c r="G21">
-        <v>0.4524661618352184</v>
+        <v>0.5468102158952206</v>
       </c>
       <c r="H21">
-        <v>0.304969376391611</v>
+        <v>0.6631250282219412</v>
       </c>
       <c r="I21">
-        <v>0.2430186413201056</v>
+        <v>0.6149064356780478</v>
       </c>
       <c r="J21">
-        <v>0.05301234122149978</v>
+        <v>0.1716430270751523</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5163628821204469</v>
+        <v>0.4307884619649229</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8558818163030963</v>
+        <v>1.170703450107908</v>
       </c>
       <c r="O21">
-        <v>1.548655571341556</v>
+        <v>2.391606564922455</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.094446706089911</v>
+        <v>1.586966081261778</v>
       </c>
       <c r="C22">
-        <v>0.4835564600445252</v>
+        <v>0.2524623020922263</v>
       </c>
       <c r="D22">
-        <v>0.1572400437789412</v>
+        <v>0.230756938010316</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.738809544092689</v>
+        <v>1.093596974226543</v>
       </c>
       <c r="G22">
-        <v>0.4771837340655196</v>
+        <v>0.5492418041718707</v>
       </c>
       <c r="H22">
-        <v>0.3124399801842799</v>
+        <v>0.6616775503484433</v>
       </c>
       <c r="I22">
-        <v>0.2447420669372384</v>
+        <v>0.6112320857505225</v>
       </c>
       <c r="J22">
-        <v>0.0520059147625016</v>
+        <v>0.1706067538670144</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5504910040984754</v>
+        <v>0.4392099971438768</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8628807338588729</v>
+        <v>1.170867123781321</v>
       </c>
       <c r="O22">
-        <v>1.616953926659193</v>
+        <v>2.393914574190603</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.945404483468565</v>
+        <v>1.54205887506987</v>
       </c>
       <c r="C23">
-        <v>0.4699821816943199</v>
+        <v>0.2480302954410263</v>
       </c>
       <c r="D23">
-        <v>0.1534526543252639</v>
+        <v>0.2301127455438774</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7219472757661407</v>
+        <v>1.092558269178269</v>
       </c>
       <c r="G23">
-        <v>0.463891075546556</v>
+        <v>0.5479141797829357</v>
       </c>
       <c r="H23">
-        <v>0.3083964383731512</v>
+        <v>0.6624262632639955</v>
       </c>
       <c r="I23">
-        <v>0.2437505830762845</v>
+        <v>0.6131652399036653</v>
       </c>
       <c r="J23">
-        <v>0.05253366213957555</v>
+        <v>0.1711547343470645</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5322455554846499</v>
+        <v>0.4347047292364579</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8590526155151395</v>
+        <v>1.170747136091421</v>
       </c>
       <c r="O23">
-        <v>1.580171673449371</v>
+        <v>2.392570333430342</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.382218531514013</v>
+        <v>1.37195934272944</v>
       </c>
       <c r="C24">
-        <v>0.4185749778781371</v>
+        <v>0.2311743661269361</v>
       </c>
       <c r="D24">
-        <v>0.1393490475776389</v>
+        <v>0.2278019019322386</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6608150864670819</v>
+        <v>1.089655133889764</v>
       </c>
       <c r="G24">
-        <v>0.4156681738625707</v>
+        <v>0.5435412755509219</v>
       </c>
       <c r="H24">
-        <v>0.2942816518781513</v>
+        <v>0.6657857597785579</v>
       </c>
       <c r="I24">
-        <v>0.2415217115696677</v>
+        <v>0.6210997911038199</v>
       </c>
       <c r="J24">
-        <v>0.05473480985914314</v>
+        <v>0.1733421754760869</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4637864557670923</v>
+        <v>0.4178745374732387</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.846536954225968</v>
+        <v>1.171010793453149</v>
       </c>
       <c r="O24">
-        <v>1.447856463629961</v>
+        <v>2.389948749725647</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.776690424413687</v>
+        <v>1.188509898674511</v>
       </c>
       <c r="C25">
-        <v>0.3630818992196509</v>
+        <v>0.2128494779753112</v>
       </c>
       <c r="D25">
-        <v>0.1246059697196245</v>
+        <v>0.2255873350875461</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6001114069917222</v>
+        <v>1.088728611653735</v>
       </c>
       <c r="G25">
-        <v>0.3676661533430945</v>
+        <v>0.540222401799241</v>
       </c>
       <c r="H25">
-        <v>0.2813874379433656</v>
+        <v>0.6705304438041964</v>
       </c>
       <c r="I25">
-        <v>0.2420861247175345</v>
+        <v>0.6309666527907716</v>
       </c>
       <c r="J25">
-        <v>0.05751617156669298</v>
+        <v>0.1759414163872215</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3911326419500512</v>
+        <v>0.4002262357602575</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8369508434033293</v>
+        <v>1.172837087445615</v>
       </c>
       <c r="O25">
-        <v>1.318488555482389</v>
+        <v>2.392396237006039</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.053505811508217</v>
+        <v>2.331700277803748</v>
       </c>
       <c r="C2">
-        <v>0.1992382023926211</v>
+        <v>0.3221333325186748</v>
       </c>
       <c r="D2">
-        <v>0.2241980064248708</v>
+        <v>0.114111156789626</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.089944437231786</v>
+        <v>0.5593518029135183</v>
       </c>
       <c r="G2">
-        <v>0.5389779156351295</v>
+        <v>0.3352846609547129</v>
       </c>
       <c r="H2">
-        <v>0.6749900868873766</v>
+        <v>0.2736798340116167</v>
       </c>
       <c r="I2">
-        <v>0.6393562858807513</v>
+        <v>0.2447813766399527</v>
       </c>
       <c r="J2">
-        <v>0.1780621131439286</v>
+        <v>0.0598907195484859</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3876720284449675</v>
+        <v>0.3384800780069241</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.175515594943626</v>
+        <v>0.8329563469691834</v>
       </c>
       <c r="O2">
-        <v>2.398732720235103</v>
+        <v>1.233224940594283</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9620794073420598</v>
+        <v>2.030290253280441</v>
       </c>
       <c r="C3">
-        <v>0.1899420474211269</v>
+        <v>0.2943033495895975</v>
       </c>
       <c r="D3">
-        <v>0.2234080634790772</v>
+        <v>0.1072033573825379</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.091953429321521</v>
+        <v>0.5339209552456197</v>
       </c>
       <c r="G3">
-        <v>0.5388811009410333</v>
+        <v>0.3149603710729139</v>
       </c>
       <c r="H3">
-        <v>0.6786162384583392</v>
+        <v>0.2694696796107294</v>
       </c>
       <c r="I3">
-        <v>0.645743417936977</v>
+        <v>0.2479027679598111</v>
       </c>
       <c r="J3">
-        <v>0.1796287380230268</v>
+        <v>0.06169273150415755</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3794413889013413</v>
+        <v>0.3032391477520093</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.178167065373636</v>
+        <v>0.8320206848560048</v>
       </c>
       <c r="O3">
-        <v>2.405854679637031</v>
+        <v>1.180979757499486</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9059858800534357</v>
+        <v>1.845195110958599</v>
       </c>
       <c r="C4">
-        <v>0.1841997647119626</v>
+        <v>0.2771702762286452</v>
       </c>
       <c r="D4">
-        <v>0.2229982347096993</v>
+        <v>0.1030566851459724</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.093771950556572</v>
+        <v>0.5193062377594657</v>
       </c>
       <c r="G4">
-        <v>0.539189518556924</v>
+        <v>0.3032104993331401</v>
       </c>
       <c r="H4">
-        <v>0.6811409513148021</v>
+        <v>0.2673532227864825</v>
       </c>
       <c r="I4">
-        <v>0.6500110477806906</v>
+        <v>0.2504182957239323</v>
       </c>
       <c r="J4">
-        <v>0.1806545973539446</v>
+        <v>0.06289079322730728</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3745257404509488</v>
+        <v>0.2817940031818154</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.180209076753961</v>
+        <v>0.8322769204642242</v>
       </c>
       <c r="O4">
-        <v>2.411622324664336</v>
+        <v>1.151418645629334</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.883139936694846</v>
+        <v>1.769746436993074</v>
       </c>
       <c r="C5">
-        <v>0.1818512720258383</v>
+        <v>0.2701762444862368</v>
       </c>
       <c r="D5">
-        <v>0.222850208258798</v>
+        <v>0.1013898639594615</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.094660225333982</v>
+        <v>0.5135906302403015</v>
       </c>
       <c r="G5">
-        <v>0.5394076752139298</v>
+        <v>0.298595856941354</v>
       </c>
       <c r="H5">
-        <v>0.6822448567885857</v>
+        <v>0.266604180742732</v>
       </c>
       <c r="I5">
-        <v>0.6518371105565954</v>
+        <v>0.2515883646697148</v>
       </c>
       <c r="J5">
-        <v>0.1810887378344148</v>
+        <v>0.06340155299075967</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3725574983989475</v>
+        <v>0.2731000581009653</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.181145573082816</v>
+        <v>0.8325842007727928</v>
       </c>
       <c r="O5">
-        <v>2.414323483140549</v>
+        <v>1.139975185686652</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8793472035891625</v>
+        <v>1.757216593180488</v>
       </c>
       <c r="C6">
-        <v>0.1814608007593961</v>
+        <v>0.2690141351834257</v>
       </c>
       <c r="D6">
-        <v>0.2228267771853254</v>
+        <v>0.1011144536512489</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.094816617242806</v>
+        <v>0.5126557287193378</v>
       </c>
       <c r="G6">
-        <v>0.539449484337851</v>
+        <v>0.2978397989477131</v>
       </c>
       <c r="H6">
-        <v>0.6824326952017969</v>
+        <v>0.2664865287381488</v>
       </c>
       <c r="I6">
-        <v>0.6521455792595177</v>
+        <v>0.2517912486971241</v>
       </c>
       <c r="J6">
-        <v>0.181161799035392</v>
+        <v>0.06348771137544418</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3722327892547668</v>
+        <v>0.2716590647655579</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.181307388311097</v>
+        <v>0.8326473060620501</v>
       </c>
       <c r="O6">
-        <v>2.414793198014308</v>
+        <v>1.138110566226544</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9056777180387598</v>
+        <v>1.844177686003775</v>
       </c>
       <c r="C7">
-        <v>0.1841681261496149</v>
+        <v>0.2770760024845913</v>
       </c>
       <c r="D7">
-        <v>0.2229961614192035</v>
+        <v>0.1030341138486079</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.093783333934596</v>
+        <v>0.5192281980497881</v>
       </c>
       <c r="G7">
-        <v>0.5391920863076436</v>
+        <v>0.3031475747920567</v>
       </c>
       <c r="H7">
-        <v>0.6811555349448497</v>
+        <v>0.2673426673423194</v>
       </c>
       <c r="I7">
-        <v>0.6500353225832463</v>
+        <v>0.2504334960004044</v>
       </c>
       <c r="J7">
-        <v>0.1806603871381363</v>
+        <v>0.0628975908942877</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3744990543440707</v>
+        <v>0.2816765752432673</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.18022128377698</v>
+        <v>0.8322802509255496</v>
       </c>
       <c r="O7">
-        <v>2.411657332967309</v>
+        <v>1.151261912784179</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.021974244160901</v>
+        <v>2.227771266743616</v>
       </c>
       <c r="C8">
-        <v>0.1960401377800594</v>
+        <v>0.3125464793088923</v>
       </c>
       <c r="D8">
-        <v>0.2239100693617502</v>
+        <v>0.1117091624658784</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.090515787356956</v>
+        <v>0.5503686752652683</v>
       </c>
       <c r="G8">
-        <v>0.5388681656978207</v>
+        <v>0.3281193992454163</v>
       </c>
       <c r="H8">
-        <v>0.676178525098031</v>
+        <v>0.2721282067738926</v>
       </c>
       <c r="I8">
-        <v>0.6414867696361419</v>
+        <v>0.2457298455185963</v>
       </c>
       <c r="J8">
-        <v>0.1785890226061859</v>
+        <v>0.06049273244389042</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3848055936836943</v>
+        <v>0.3262868611059702</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.176344048110984</v>
+        <v>0.8324575861203627</v>
       </c>
       <c r="O8">
-        <v>2.40089893800932</v>
+        <v>1.214669705521416</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.250297513892406</v>
+        <v>2.980478058236997</v>
       </c>
       <c r="C9">
-        <v>0.2190409988657223</v>
+        <v>0.3817853958826731</v>
       </c>
       <c r="D9">
-        <v>0.2262959867447307</v>
+        <v>0.1295134007817751</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.08874600079843</v>
+        <v>0.6199115689435928</v>
       </c>
       <c r="G9">
-        <v>0.5411538878790907</v>
+        <v>0.3833440683114304</v>
       </c>
       <c r="H9">
-        <v>0.6687822527688922</v>
+        <v>0.285439359047146</v>
       </c>
       <c r="I9">
-        <v>0.6274682467506771</v>
+        <v>0.2415242515584346</v>
       </c>
       <c r="J9">
-        <v>0.1750337668216897</v>
+        <v>0.05652700670844268</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4061030906527208</v>
+        <v>0.4154637826206056</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.172015239865729</v>
+        <v>0.8396845837227431</v>
       </c>
       <c r="O9">
-        <v>2.390867283439661</v>
+        <v>1.360418412436076</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.418128021485416</v>
+        <v>3.534885311896346</v>
       </c>
       <c r="C10">
-        <v>0.2357609244943148</v>
+        <v>0.4325287609900954</v>
       </c>
       <c r="D10">
-        <v>0.2284073367851107</v>
+        <v>0.1431379706483682</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.090269667563291</v>
+        <v>0.6769676365934245</v>
       </c>
       <c r="G10">
-        <v>0.5446180216760297</v>
+        <v>0.4284169094457582</v>
       </c>
       <c r="H10">
-        <v>0.6647857972259885</v>
+        <v>0.2979185215371274</v>
       </c>
       <c r="I10">
-        <v>0.6188431986386362</v>
+        <v>0.2418795828521603</v>
       </c>
       <c r="J10">
-        <v>0.1727296183461657</v>
+        <v>0.054104179410011</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.422403091685922</v>
+        <v>0.4822652239231076</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.170818240456626</v>
+        <v>0.8496110345597998</v>
       </c>
       <c r="O10">
-        <v>2.390245045757155</v>
+        <v>1.482645000134454</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.494479993581365</v>
+        <v>3.787668235870967</v>
       </c>
       <c r="C11">
-        <v>0.2433268146108105</v>
+        <v>0.4556026674401608</v>
       </c>
       <c r="D11">
-        <v>0.2294449434378265</v>
+        <v>0.1494684546258753</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.091575387524927</v>
+        <v>0.7044052151543525</v>
       </c>
       <c r="G11">
-        <v>0.5465824545558604</v>
+        <v>0.4500597111038189</v>
       </c>
       <c r="H11">
-        <v>0.6632791878578672</v>
+        <v>0.3042535702270186</v>
       </c>
       <c r="I11">
-        <v>0.6152832035624769</v>
+        <v>0.2428794243527719</v>
       </c>
       <c r="J11">
-        <v>0.1717480480991824</v>
+        <v>0.0531162946188477</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4299582029079687</v>
+        <v>0.5129926251357801</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.170701804173945</v>
+        <v>0.8552288928781593</v>
       </c>
       <c r="O11">
-        <v>2.39142793466965</v>
+        <v>1.542029516491681</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.523391501343951</v>
+        <v>3.883496699780096</v>
       </c>
       <c r="C12">
-        <v>0.2461858860903021</v>
+        <v>0.4643402239848342</v>
       </c>
       <c r="D12">
-        <v>0.2298488827573522</v>
+        <v>0.1518859365433229</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.092157836699982</v>
+        <v>0.7150247081743402</v>
       </c>
       <c r="G12">
-        <v>0.5473822633397276</v>
+        <v>0.4584332608571202</v>
       </c>
       <c r="H12">
-        <v>0.6627533925965849</v>
+        <v>0.3067534890866028</v>
       </c>
       <c r="I12">
-        <v>0.6139874282938571</v>
+        <v>0.2433865434998026</v>
       </c>
       <c r="J12">
-        <v>0.1713859149384636</v>
+        <v>0.0527593263820485</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.432839079159578</v>
+        <v>0.5246821660327754</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.1707190493007</v>
+        <v>0.8575235390934353</v>
       </c>
       <c r="O12">
-        <v>2.392086655667555</v>
+        <v>1.565104310410192</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.517164982489476</v>
+        <v>3.862853291207045</v>
       </c>
       <c r="C13">
-        <v>0.2455704024880561</v>
+        <v>0.4624584135859777</v>
       </c>
       <c r="D13">
-        <v>0.2297613982319291</v>
+        <v>0.1513643674465897</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.092028483398451</v>
+        <v>0.7127271341517059</v>
       </c>
       <c r="G13">
-        <v>0.5472075224475503</v>
+        <v>0.4566217213345851</v>
       </c>
       <c r="H13">
-        <v>0.6628646437125099</v>
+        <v>0.3062104911281551</v>
       </c>
       <c r="I13">
-        <v>0.6142641692918218</v>
+        <v>0.2432714793320159</v>
       </c>
       <c r="J13">
-        <v>0.1714634815032099</v>
+        <v>0.05283543297725224</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.432217748728192</v>
+        <v>0.5221621412784856</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.170712610748211</v>
+        <v>0.8570217605307562</v>
       </c>
       <c r="O13">
-        <v>2.391935413793249</v>
+        <v>1.560107910299166</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.496858599055088</v>
+        <v>3.795549866094234</v>
       </c>
       <c r="C14">
-        <v>0.2435621528845218</v>
+        <v>0.4563215039904378</v>
       </c>
       <c r="D14">
-        <v>0.2294779553244837</v>
+        <v>0.1496669290679193</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.091621542806081</v>
+        <v>0.7052741912854117</v>
       </c>
       <c r="G14">
-        <v>0.5466471343296604</v>
+        <v>0.450744958957614</v>
       </c>
       <c r="H14">
-        <v>0.6632350343172675</v>
+        <v>0.3044571787838635</v>
       </c>
       <c r="I14">
-        <v>0.61517555063012</v>
+        <v>0.2429185226980195</v>
       </c>
       <c r="J14">
-        <v>0.1717180635261535</v>
+        <v>0.0530865793867239</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4301948164591778</v>
+        <v>0.5139532239537346</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.170701994906366</v>
+        <v>0.8554142700079694</v>
       </c>
       <c r="O14">
-        <v>2.391477903661041</v>
+        <v>1.543915869202408</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.484420119245158</v>
+        <v>3.754338925925424</v>
       </c>
       <c r="C15">
-        <v>0.2423312589511397</v>
+        <v>0.4525625074415984</v>
       </c>
       <c r="D15">
-        <v>0.2293057713529691</v>
+        <v>0.1486298748870638</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.091383737649508</v>
+        <v>0.7007394338793489</v>
       </c>
       <c r="G15">
-        <v>0.5463111642085465</v>
+        <v>0.4471688725505345</v>
       </c>
       <c r="H15">
-        <v>0.6634677321796687</v>
+        <v>0.303396568401709</v>
       </c>
       <c r="I15">
-        <v>0.6157406123405167</v>
+        <v>0.2427193056065278</v>
       </c>
       <c r="J15">
-        <v>0.1718752478529062</v>
+        <v>0.05324266475159867</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4289582991750223</v>
+        <v>0.508932177127619</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.17070347379989</v>
+        <v>0.8544516905978981</v>
       </c>
       <c r="O15">
-        <v>2.391225115641618</v>
+        <v>1.534075569564948</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.413138166435544</v>
+        <v>3.518378840445848</v>
       </c>
       <c r="C16">
-        <v>0.2352656518053209</v>
+        <v>0.4310207469784473</v>
       </c>
       <c r="D16">
-        <v>0.228341072834283</v>
+        <v>0.1427270276452219</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.090196655095525</v>
+        <v>0.6752057286811066</v>
       </c>
       <c r="G16">
-        <v>0.5444974643368852</v>
+        <v>0.4270266066808688</v>
       </c>
       <c r="H16">
-        <v>0.6648905192332109</v>
+        <v>0.2975182878722507</v>
       </c>
       <c r="I16">
-        <v>0.6190831718897911</v>
+        <v>0.2418317783240695</v>
       </c>
       <c r="J16">
-        <v>0.1727951054946413</v>
+        <v>0.05417109761422978</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4219121476618</v>
+        <v>0.4802643576757788</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.17083444500777</v>
+        <v>0.8492668135785237</v>
       </c>
       <c r="O16">
-        <v>2.390197238603463</v>
+        <v>1.478843837128238</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.369408825965024</v>
+        <v>3.373788461864649</v>
       </c>
       <c r="C17">
-        <v>0.2309207190947689</v>
+        <v>0.4178040510618644</v>
       </c>
       <c r="D17">
-        <v>0.2277689678439287</v>
+        <v>0.1391406141140408</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.089625255886546</v>
+        <v>0.6599326189030279</v>
       </c>
       <c r="G17">
-        <v>0.5434843743277042</v>
+        <v>0.4149714619343854</v>
       </c>
       <c r="H17">
-        <v>0.665843071390924</v>
+        <v>0.2940851158051316</v>
       </c>
       <c r="I17">
-        <v>0.6212268710579849</v>
+        <v>0.2415075185394322</v>
       </c>
       <c r="J17">
-        <v>0.1733764582690398</v>
+        <v>0.0547704085298566</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4176252927579611</v>
+        <v>0.4627678699941384</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.17102427573974</v>
+        <v>0.8463744622338538</v>
       </c>
       <c r="O17">
-        <v>2.38994212416145</v>
+        <v>1.445959778299539</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.344257461956772</v>
+        <v>3.290677129824189</v>
       </c>
       <c r="C18">
-        <v>0.2284178675163844</v>
+        <v>0.4102011751105579</v>
       </c>
       <c r="D18">
-        <v>0.2274471735973123</v>
+        <v>0.1370902090094717</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.089354268047082</v>
+        <v>0.6512864366746314</v>
       </c>
       <c r="G18">
-        <v>0.5429382443421815</v>
+        <v>0.4081439695375622</v>
       </c>
       <c r="H18">
-        <v>0.6664202676899009</v>
+        <v>0.2921719994738368</v>
       </c>
       <c r="I18">
-        <v>0.6224940901711911</v>
+        <v>0.2413994046159083</v>
       </c>
       <c r="J18">
-        <v>0.1737171061987013</v>
+        <v>0.05512582867961946</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4151728136876187</v>
+        <v>0.452735952793816</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.171173767658033</v>
+        <v>0.844814052820027</v>
       </c>
       <c r="O18">
-        <v>2.389933372123437</v>
+        <v>1.427399077513314</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.335741807176021</v>
+        <v>3.262545571006001</v>
       </c>
       <c r="C19">
-        <v>0.2275698051611243</v>
+        <v>0.4076267646363192</v>
       </c>
       <c r="D19">
-        <v>0.2273394696560018</v>
+        <v>0.1363980722963447</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.089272423090897</v>
+        <v>0.6483822957967007</v>
       </c>
       <c r="G19">
-        <v>0.5427596141516347</v>
+        <v>0.4058501403183783</v>
       </c>
       <c r="H19">
-        <v>0.6666207326957618</v>
+        <v>0.2915346366230125</v>
       </c>
       <c r="I19">
-        <v>0.6229290250476751</v>
+        <v>0.2413760275782835</v>
       </c>
       <c r="J19">
-        <v>0.1738335207981265</v>
+        <v>0.05524798725036995</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4143447218027489</v>
+        <v>0.4493445988120044</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.171231312505412</v>
+        <v>0.8443031895893682</v>
       </c>
       <c r="O19">
-        <v>2.389954107960108</v>
+        <v>1.421174156783195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.374063842086343</v>
+        <v>3.389174694086989</v>
       </c>
       <c r="C20">
-        <v>0.2313836353369538</v>
+        <v>0.4192110832670721</v>
       </c>
       <c r="D20">
-        <v>0.2278291179818837</v>
+        <v>0.139521101622563</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.089680114749044</v>
+        <v>0.6615440176625498</v>
       </c>
       <c r="G20">
-        <v>0.5435884340452759</v>
+        <v>0.416243650701233</v>
       </c>
       <c r="H20">
-        <v>0.665738637139782</v>
+        <v>0.2944441677156817</v>
       </c>
       <c r="I20">
-        <v>0.6209951287212405</v>
+        <v>0.2415338670388572</v>
       </c>
       <c r="J20">
-        <v>0.1733139235127474</v>
+        <v>0.05470549728678975</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4180802706620312</v>
+        <v>0.4646270954815037</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.170999897997703</v>
+        <v>0.8466716157611955</v>
       </c>
       <c r="O20">
-        <v>2.389955000899761</v>
+        <v>1.449423468786307</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.502823128444788</v>
+        <v>3.815315481843811</v>
       </c>
       <c r="C21">
-        <v>0.2441521880233211</v>
+        <v>0.4581240526607928</v>
       </c>
       <c r="D21">
-        <v>0.2295609108726921</v>
+        <v>0.1501649479872498</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.091738683507884</v>
+        <v>0.7074569385090257</v>
       </c>
       <c r="G21">
-        <v>0.5468102158952206</v>
+        <v>0.4524661618352184</v>
       </c>
       <c r="H21">
-        <v>0.6631250282219412</v>
+        <v>0.3049693763914831</v>
       </c>
       <c r="I21">
-        <v>0.6149064356780478</v>
+        <v>0.2430186413201234</v>
       </c>
       <c r="J21">
-        <v>0.1716430270751523</v>
+        <v>0.05301234122142873</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4307884619649229</v>
+        <v>0.5163628821204753</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.170703450107908</v>
+        <v>0.8558818163030963</v>
       </c>
       <c r="O21">
-        <v>2.391606564922455</v>
+        <v>1.548655571341584</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.586966081261778</v>
+        <v>4.094446706089855</v>
       </c>
       <c r="C22">
-        <v>0.2524623020922263</v>
+        <v>0.483556460044781</v>
       </c>
       <c r="D22">
-        <v>0.230756938010316</v>
+        <v>0.1572400437790407</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.093596974226543</v>
+        <v>0.738809544092689</v>
       </c>
       <c r="G22">
-        <v>0.5492418041718707</v>
+        <v>0.4771837340655054</v>
       </c>
       <c r="H22">
-        <v>0.6616775503484433</v>
+        <v>0.3124399801841662</v>
       </c>
       <c r="I22">
-        <v>0.6112320857505225</v>
+        <v>0.2447420669372526</v>
       </c>
       <c r="J22">
-        <v>0.1706067538670144</v>
+        <v>0.05200591476260286</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4392099971438768</v>
+        <v>0.5504910040984186</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.170867123781321</v>
+        <v>0.8628807338588587</v>
       </c>
       <c r="O22">
-        <v>2.393914574190603</v>
+        <v>1.616953926659221</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.54205887506987</v>
+        <v>3.945404483468451</v>
       </c>
       <c r="C23">
-        <v>0.2480302954410263</v>
+        <v>0.469982181694462</v>
       </c>
       <c r="D23">
-        <v>0.2301127455438774</v>
+        <v>0.1534526543253634</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.092558269178269</v>
+        <v>0.7219472757661407</v>
       </c>
       <c r="G23">
-        <v>0.5479141797829357</v>
+        <v>0.4638910755465986</v>
       </c>
       <c r="H23">
-        <v>0.6624262632639955</v>
+        <v>0.3083964383730518</v>
       </c>
       <c r="I23">
-        <v>0.6131652399036653</v>
+        <v>0.2437505830763023</v>
       </c>
       <c r="J23">
-        <v>0.1711547343470645</v>
+        <v>0.052533662139707</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4347047292364579</v>
+        <v>0.5322455554847494</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.170747136091421</v>
+        <v>0.8590526155151252</v>
       </c>
       <c r="O23">
-        <v>2.392570333430342</v>
+        <v>1.580171673449399</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.37195934272944</v>
+        <v>3.382218531514013</v>
       </c>
       <c r="C24">
-        <v>0.2311743661269361</v>
+        <v>0.4185749778777677</v>
       </c>
       <c r="D24">
-        <v>0.2278019019322386</v>
+        <v>0.1393490475776389</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.089655133889764</v>
+        <v>0.6608150864670819</v>
       </c>
       <c r="G24">
-        <v>0.5435412755509219</v>
+        <v>0.4156681738624997</v>
       </c>
       <c r="H24">
-        <v>0.6657857597785579</v>
+        <v>0.2942816518781655</v>
       </c>
       <c r="I24">
-        <v>0.6210997911038199</v>
+        <v>0.2415217115696748</v>
       </c>
       <c r="J24">
-        <v>0.1733421754760869</v>
+        <v>0.05473480985913781</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4178745374732387</v>
+        <v>0.4637864557670071</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.171010793453149</v>
+        <v>0.8465369542259111</v>
       </c>
       <c r="O24">
-        <v>2.389948749725647</v>
+        <v>1.447856463629932</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.188509898674511</v>
+        <v>2.776690424413687</v>
       </c>
       <c r="C25">
-        <v>0.2128494779753112</v>
+        <v>0.3630818992191678</v>
       </c>
       <c r="D25">
-        <v>0.2255873350875461</v>
+        <v>0.1246059697195747</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.088728611653735</v>
+        <v>0.6001114069917364</v>
       </c>
       <c r="G25">
-        <v>0.540222401799241</v>
+        <v>0.3676661533431513</v>
       </c>
       <c r="H25">
-        <v>0.6705304438041964</v>
+        <v>0.2813874379434793</v>
       </c>
       <c r="I25">
-        <v>0.6309666527907716</v>
+        <v>0.2420861247175381</v>
       </c>
       <c r="J25">
-        <v>0.1759414163872215</v>
+        <v>0.05751617156680311</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4002262357602575</v>
+        <v>0.3911326419500654</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.172837087445615</v>
+        <v>0.836950843403315</v>
       </c>
       <c r="O25">
-        <v>2.392396237006039</v>
+        <v>1.318488555482361</v>
       </c>
     </row>
   </sheetData>
